--- a/primer_parte/simulacro1parcial.xlsx
+++ b/primer_parte/simulacro1parcial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ezequiel\Desktop\UP\Calculo numerico\Codigo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ezequiel\Desktop\UP\Calculo numerico\Codigo\primer_parte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{70E50B86-8122-414A-ADD1-022CCE1A828A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB3266B-9A63-4674-A8A2-22F2A9CD4A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{6F9FE16B-FCA6-4176-B2F8-1AFD0DBF2E20}"/>
+    <workbookView xWindow="28665" yWindow="-135" windowWidth="29070" windowHeight="15750" xr2:uid="{6F9FE16B-FCA6-4176-B2F8-1AFD0DBF2E20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="biseccion" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -341,14 +340,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC867539-B141-4A7D-B80F-B0BAA511F33D}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -813,7 +811,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1010,7 +1008,7 @@
         <v>2.0535769628099172</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" ref="F9:F18" si="0">MAX(ABS(B9-B8),ABS(C9-C8),ABS(D9-D8),ABS(E9-E8))</f>
+        <f t="shared" ref="F9" si="0">MAX(ABS(B9-B8),ABS(C9-C8),ABS(D9-D8),ABS(E9-E8))</f>
         <v>0.68243801652892566</v>
       </c>
       <c r="G9" s="2" t="str">
@@ -1520,10 +1518,10 @@
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>49</v>
       </c>
       <c r="H4" t="s">
@@ -1850,8 +1848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA3BA3D-6808-4AAE-8A95-E4C0977A3E4C}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1928,10 +1926,10 @@
       <c r="H4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="2" t="s">
         <v>61</v>
       </c>
     </row>
